--- a/group-reports/tables/sharif-results-test-2.xlsx
+++ b/group-reports/tables/sharif-results-test-2.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>933 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>197.96</t>
+          <t>197.96 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>627 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>12063 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>6782.44</t>
+          <t>6782.44 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>1043 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>215.38</t>
+          <t>215.38 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>645 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>216.63</t>
+          <t>216.63 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>821 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>192.21</t>
+          <t>192.21 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>776 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>189.03</t>
+          <t>189.03 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>716 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>201.77</t>
+          <t>201.77 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>633 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>189.41</t>
+          <t>189.41 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>591 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>190.51</t>
+          <t>190.51 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>835 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>188.67</t>
+          <t>188.67 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>1156 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>184.08</t>
+          <t>184.08 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>835 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>13900 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>6946.82</t>
+          <t>6946.82 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1377 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>195.03</t>
+          <t>195.03 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>858 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>194.68</t>
+          <t>194.68 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>653 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>200.11</t>
+          <t>200.11 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1288 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>186.66</t>
+          <t>186.66 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>423 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>12533</t>
+          <t>12533 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>6620.62</t>
+          <t>6620.62 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1067 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>188.05</t>
+          <t>188.05 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>677 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>191.75</t>
+          <t>191.75 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>910 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>182.18</t>
+          <t>182.18 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>864 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>197.94</t>
+          <t>197.94 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -2243,17 +2243,17 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39 msec</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>916 msec</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>193.34</t>
+          <t>193.34 msec</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -2320,17 +2320,17 @@
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19 msec</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1017 msec</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>182.54</t>
+          <t>182.54 msec</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15 msec</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>846 msec</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>233.06</t>
+          <t>233.06 msec</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -2474,17 +2474,17 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46 msec</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1505 msec</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>197.35</t>
+          <t>197.35 msec</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41 msec</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>920 msec</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>196.65</t>
+          <t>196.65 msec</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -2628,17 +2628,17 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>395 msec</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>10619</t>
+          <t>10619 msec</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>4893.26</t>
+          <t>4893.26 msec</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -2705,17 +2705,17 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>217 msec</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>10992</t>
+          <t>10992 msec</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>4757.68</t>
+          <t>4757.68 msec</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
@@ -2782,17 +2782,17 @@
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32 msec</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>783 msec</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>201.18</t>
+          <t>201.18 msec</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -2859,17 +2859,17 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21 msec</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>945 msec</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>182.91</t>
+          <t>182.91 msec</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28 msec</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>534 msec</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>191.43</t>
+          <t>191.43 msec</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -3013,17 +3013,17 @@
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16 msec</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>857 msec</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>201.15</t>
+          <t>201.15 msec</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31 msec</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>576 msec</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>190.26</t>
+          <t>190.26 msec</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -3167,17 +3167,17 @@
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17 msec</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>685 msec</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>193.37</t>
+          <t>193.37 msec</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -3244,17 +3244,17 @@
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>215 msec</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>10149</t>
+          <t>10149 msec</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>4428.21</t>
+          <t>4428.21 msec</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -3321,17 +3321,17 @@
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36 msec</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>889 msec</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>195.33</t>
+          <t>195.33 msec</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
